--- a/value-matching/VitalStatusValues.xlsx
+++ b/value-matching/VitalStatusValues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangshuxin/PycharmProjects/concept-based-mapping/value-matching/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E293C2B-5C58-7E4E-BAF7-B0E0AE77AC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BBD766-5075-444C-B4E4-0CD3B98EF792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="500" windowWidth="29760" windowHeight="21420" xr2:uid="{5D199FA7-EC09-EF44-B58A-A9750BCA3120}"/>
   </bookViews>
@@ -508,7 +508,7 @@
   <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="A9" sqref="A9:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/value-matching/VitalStatusValues.xlsx
+++ b/value-matching/VitalStatusValues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangshuxin/PycharmProjects/concept-based-mapping/value-matching/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BBD766-5075-444C-B4E4-0CD3B98EF792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D01AE85-9014-644B-8FFA-C512B8ACDFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="500" windowWidth="29760" windowHeight="21420" xr2:uid="{5D199FA7-EC09-EF44-B58A-A9750BCA3120}"/>
   </bookViews>
@@ -508,7 +508,7 @@
   <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B11"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
